--- a/kawas (Autosaved) (Autosaved).xlsx
+++ b/kawas (Autosaved) (Autosaved).xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="132" windowWidth="22932" windowHeight="9240" activeTab="2"/>
+    <workbookView xWindow="96" yWindow="132" windowWidth="22932" windowHeight="9240" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Assignment-1" sheetId="3" r:id="rId2"/>
     <sheet name="Assignment-2" sheetId="4" r:id="rId3"/>
     <sheet name="HLR TEST CASE" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
+    <sheet name="Module 3" sheetId="6" r:id="rId5"/>
+    <sheet name="Module-4" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="1974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2558" uniqueCount="2262">
   <si>
     <t xml:space="preserve">Amazon functional requirement or non functional requirement
 </t>
@@ -10982,13 +10983,2250 @@
   </si>
   <si>
     <t>it should adjust to different screen resolutions of ATM machines.</t>
+  </si>
+  <si>
+    <t>Module - 3 (Testing on Live Application)</t>
+  </si>
+  <si>
+    <t>What is RDBMS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RDBMS stands for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Relational Database Management System</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>It's a type of database management system (DBMS) that stores data in a structured format, using rows and columns.</t>
+  </si>
+  <si>
+    <t>Each table consists of rows (records) and columns (fields), and each row has a unique key, known as the primary key.</t>
+  </si>
+  <si>
+    <t>Key Features of RDBMS:</t>
+  </si>
+  <si>
+    <r>
+      <t>Data Integrity:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Enforces rules (like foreign keys and constraints) to maintain accuracy and consistency.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Data Security:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Provides user access controls to restrict who can see or modify data.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ACID Properties:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ensures Atomicity, Consistency, Isolation, and Durability of transactions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SQL Support:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Most RDBMSs use Structured Query Language (SQL) for querying and managing the database.</t>
+    </r>
+  </si>
+  <si>
+    <t>Examples of RDBMS:</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>Oracle Database</t>
+  </si>
+  <si>
+    <t>Microsoft SQL Server</t>
+  </si>
+  <si>
+    <t>SQLite</t>
+  </si>
+  <si>
+    <t>What is SQL</t>
+  </si>
+  <si>
+    <t>SQL allows you to create, read, update, and delete data stored in an RDBMS (Relational Database Management System).</t>
+  </si>
+  <si>
+    <t>Key Functions of SQL:</t>
+  </si>
+  <si>
+    <t>Data Querying:</t>
+  </si>
+  <si>
+    <t>Data Manipulation:</t>
+  </si>
+  <si>
+    <t>Data Definition:</t>
+  </si>
+  <si>
+    <t>Data Control:</t>
+  </si>
+  <si>
+    <t>Transaction Control:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SQL stands for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Structured Query Language</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Retrieve data from a database.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Filter results based on conditions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Combine data from multiple tables based on a related column.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INSERT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Add new records to a table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UPDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Modify existing records.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DELETE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Remove records from a table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CREATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Define new database objects like tables, indexes, or views.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ALTER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Modify the structure of an existing object.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DROP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Delete database objects.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GRANT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Give users permissions to access or modify data.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>REVOKE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Remove permissions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>COMMIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Save changes made in a transaction.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ROLLBACK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Undo changes made in a transaction.</t>
+    </r>
+  </si>
+  <si>
+    <t>Write SQL Commands</t>
+  </si>
+  <si>
+    <t>Here are some basic SQL commands that demonstrate different types of SQL operations:</t>
+  </si>
+  <si>
+    <t>Creating a Table</t>
+  </si>
+  <si>
+    <t>CREATE TABLE employees ( id INT PRIMARY KEY, first_name VARCHAR(50), last_name VARCHAR(50), email VARCHAR(100), department VARCHAR(50) );</t>
+  </si>
+  <si>
+    <t>Inserting Data into a Table</t>
+  </si>
+  <si>
+    <t>INSERT INTO employees (id, first_name, last_name, email, department) VALUES (1, 'John', 'Doe', 'john.doe@example.com', 'Sales');</t>
+  </si>
+  <si>
+    <t>Selecting Data from a Table</t>
+  </si>
+  <si>
+    <t>SELECT * FROM employees;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, department FROM employees WHERE department = 'Sales';</t>
+  </si>
+  <si>
+    <t>Updating Data in a Table</t>
+  </si>
+  <si>
+    <t>UPDATE employees SET email = 'new.email@example.com' WHERE id = 1;</t>
+  </si>
+  <si>
+    <t>Deleting Data from a Table</t>
+  </si>
+  <si>
+    <t>DELETE FROM employees WHERE id = 1;</t>
+  </si>
+  <si>
+    <t>Joining Two Tables</t>
+  </si>
+  <si>
+    <t>CREATE TABLE departments ( department_id INT PRIMARY KEY, department_name VARCHAR(50) );</t>
+  </si>
+  <si>
+    <t>SELECT e.first_name, e.last_name, d.department_name FROM employees e JOIN departments d ON e.department = d.department_id;</t>
+  </si>
+  <si>
+    <t>Altering a Table</t>
+  </si>
+  <si>
+    <t>ALTER TABLE employees ADD hire_date DATE;</t>
+  </si>
+  <si>
+    <t>Dropping a Table</t>
+  </si>
+  <si>
+    <t>DROP TABLE employees;</t>
+  </si>
+  <si>
+    <t>What is join?</t>
+  </si>
+  <si>
+    <t>The purpose of a JOIN is to retrieve data that is spread across multiple tables, which are connected by some common field, usually a foreign key.</t>
+  </si>
+  <si>
+    <t>Types of Joins in SQL:</t>
+  </si>
+  <si>
+    <t>SELECT employees.first_name, departments.department_name</t>
+  </si>
+  <si>
+    <t>FROM employees</t>
+  </si>
+  <si>
+    <t>INNER JOIN departments ON employees.department_id = departments.department_id;</t>
+  </si>
+  <si>
+    <t>LEFT JOIN departments ON employees.department_id = departments.department_id;</t>
+  </si>
+  <si>
+    <t>Right JOIN departments ON employees.department_id = departments.department_id;</t>
+  </si>
+  <si>
+    <t>FULL OUTER JOIN departments ON employees.department_id = departments.department_id;</t>
+  </si>
+  <si>
+    <t>CROSS JOIN departments;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in SQL is a way to combine rows from two or more tables based on a related column between them.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>INNER JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Returns only the rows where there is a match in both tables.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Use Case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: When you want to see only the data that exists in both tables.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LEFT JOIN (or LEFT OUTER JOIN)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Returns all the rows from the left table, and the matched rows from the right table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Use Case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: When you want all records from the left table, even if there are no corresponding records in the right table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>RIGHT JOIN (or RIGHT OUTER JOIN)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Returns all the rows from the right table, and the matched rows from the left table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Use Case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: When you want all records from the right table, even if there are no corresponding records in the left table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FULL JOIN (or FULL OUTER JOIN)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Returns all the rows when there is a match in either the left or right table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Use Case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: When you want all records from both tables, with NULLs for non-matching rows.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>CROSS JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Returns the Cartesian product of the two tables, meaning every row in the first table is paired with every row in the second table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Use Case</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: When you need all combinations of rows from two tables.</t>
+    </r>
+  </si>
+  <si>
+    <t>Write type of joins.</t>
+  </si>
+  <si>
+    <t>Here are the main types of SQL JOINs:</t>
+  </si>
+  <si>
+    <t>Retrieves only the rows that have matching values in both tables.</t>
+  </si>
+  <si>
+    <t>Retrieves all rows from the left table and the matched rows from the right table.</t>
+  </si>
+  <si>
+    <t>Retrieves all rows from the right table and the matched rows from the left table.</t>
+  </si>
+  <si>
+    <t>Retrieves all rows where there is a match in either the left or right table.</t>
+  </si>
+  <si>
+    <t>Returns the Cartesian product of the two tables, meaning every row in the first table is paired with every row in the second table.</t>
+  </si>
+  <si>
+    <t>A regular join, but the table is joined with itself. This is useful for finding related data within the same table.</t>
+  </si>
+  <si>
+    <t>Automatically joins two tables based on columns with the same name and data type.</t>
+  </si>
+  <si>
+    <t>Refers to retrieving rows from one table that do not have a match in another table.</t>
+  </si>
+  <si>
+    <r>
+      <t>SELF JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NATURAL JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ANTI JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Not a standard SQL keyword but a concept):</t>
+    </r>
+  </si>
+  <si>
+    <t>How Many constraint and describes it self</t>
+  </si>
+  <si>
+    <t>Here are the main types of constraints:</t>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+  </si>
+  <si>
+    <t>Uniquely identifies each record in a table. A table can have only one primary key, which can consist of one or multiple columns.</t>
+  </si>
+  <si>
+    <t>The primary key ensures that no duplicate values exist for the key column(s), and that no value is NULL.</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Establishes a link between two tables by ensuring that the value in a column (or a group of columns) in one table matches </t>
+  </si>
+  <si>
+    <t>the value in a column (or a group of columns) in another table.</t>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+  </si>
+  <si>
+    <t>Ensures that all values in a column or a group of columns are distinct across the rows of a table.</t>
+  </si>
+  <si>
+    <t>Unlike the primary key, a table can have multiple unique constraints, and unique columns can contain NULL values, but each non-NULL value must be unique.</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>Ensures that a column cannot have a NULL value. It is used when you want to make sure that a field must always contain a value.</t>
+  </si>
+  <si>
+    <t>CHECK</t>
+  </si>
+  <si>
+    <t>Ensures that all values in a column satisfy a specific condition. It is used to enforce domain integrity by limiting the values that a column can accept.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DEFAULT</t>
+  </si>
+  <si>
+    <t>Provides a default value for a column when no value is specified. If no value is provided during the insertion of a record, the default value is automatically assigned.</t>
+  </si>
+  <si>
+    <t>INDEX (Not a true constraint, but often associated with them)</t>
+  </si>
+  <si>
+    <t>Improves the speed of data retrieval operations on a table by creating indexes on columns.</t>
+  </si>
+  <si>
+    <t>While not a constraint, indexes are often created on columns that are frequently used in query conditions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AUTO_INCREMENT</t>
+  </si>
+  <si>
+    <t>Automatically generates a unique number when a new record is inserted into a table.</t>
+  </si>
+  <si>
+    <t>Typically used in conjunction with the PRIMARY KEY to generate unique identifiers automatically.</t>
+  </si>
+  <si>
+    <r>
+      <t>Description</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Difference between RDBMS vs DBMS</t>
+  </si>
+  <si>
+    <t>Data Structure</t>
+  </si>
+  <si>
+    <t>Stores data as files, typically in a hierarchical or navigational form. Data might be stored in formats like XML, JSON, or flat files.</t>
+  </si>
+  <si>
+    <t>Tables might be present, but relationships between tables are not explicitly defined.</t>
+  </si>
+  <si>
+    <t>RDBMS</t>
+  </si>
+  <si>
+    <t>Stores data in structured formats using tables (rows and columns) that are related to each other through keys.</t>
+  </si>
+  <si>
+    <t>Data is organized in a relational model where relationships between tables are established through foreign keys and primary keys.</t>
+  </si>
+  <si>
+    <t>Data Integrity</t>
+  </si>
+  <si>
+    <t>Typically does not enforce data integrity constraints like primary keys or foreign keys.</t>
+  </si>
+  <si>
+    <t>Data redundancy and inconsistency might occur since there is no structured way to enforce relationships between data.</t>
+  </si>
+  <si>
+    <t>Enforces data integrity using constraints like primary keys, foreign keys, unique constraints, and more.</t>
+  </si>
+  <si>
+    <t>Ensures data consistency and reduces redundancy by normalizing data into related tables.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scalability and Complexity</t>
+  </si>
+  <si>
+    <t>Generally used for smaller, simpler applications with less complex data structures.</t>
+  </si>
+  <si>
+    <t>Easier to manage but not ideal for large-scale, complex data operations.</t>
+  </si>
+  <si>
+    <t>Suitable for large-scale, complex applications where data integrity, scalability, and multi-user access are essential.</t>
+  </si>
+  <si>
+    <t>Can handle complex queries and large datasets efficiently.</t>
+  </si>
+  <si>
+    <t>Support for SQL</t>
+  </si>
+  <si>
+    <t>May or may not support SQL (Structured Query Language). Some DBMSs might use proprietary query languages or none at all.</t>
+  </si>
+  <si>
+    <t>Provides full support for SQL, which is the standard language for querying and managing relational databases.</t>
+  </si>
+  <si>
+    <t>Normalization</t>
+  </si>
+  <si>
+    <t>Data normalization (the process of organizing data to reduce redundancy) is typically not implemented, leading to possible data duplication.</t>
+  </si>
+  <si>
+    <t>Data is normalized to minimize redundancy and dependency. This organization improves data integrity and makes the database more efficient.</t>
+  </si>
+  <si>
+    <t>Multi-user Environment</t>
+  </si>
+  <si>
+    <t>Primarily designed for single-user applications. Multi-user support, if available, might be limited.</t>
+  </si>
+  <si>
+    <t>Designed to support multiple users simultaneously, with robust transaction management to ensure data consistency.</t>
+  </si>
+  <si>
+    <t>Transactions and ACID Properties</t>
+  </si>
+  <si>
+    <t>May not fully support ACID (Atomicity, Consistency, Isolation, Durability) properties for transactions.</t>
+  </si>
+  <si>
+    <t>Transaction management, if present, is often basic.</t>
+  </si>
+  <si>
+    <t>Fully supports ACID properties, ensuring that all transactions are processed reliably and that the database remains in a consistent state.</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Basic security features may be present, but they are often limited to user access control.</t>
+  </si>
+  <si>
+    <t>Advanced security features including access control, data encryption, and user roles are standard, providing a secure environment for data.</t>
+  </si>
+  <si>
+    <r>
+      <t>DBMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>What is API Testing</t>
+  </si>
+  <si>
+    <t>integration testing to determine if they meet expectations for functionality, reliability, performance, and security.</t>
+  </si>
+  <si>
+    <t>Unlike GUI testing, which focuses on the application's user interface, API testing focuses on the business logic layer of the software architecture.</t>
+  </si>
+  <si>
+    <t>Key Aspects of API Testing:</t>
+  </si>
+  <si>
+    <t>Ensures that the API performs its intended function correctly. This involves testing various endpoints, inputs, and outputs to ensure the API behaves as expected.</t>
+  </si>
+  <si>
+    <t>Validates the API's response against the expected output, checking the correctness of the data returned by the API and ensuring it follows the defined format.</t>
+  </si>
+  <si>
+    <t>Evaluates how the API performs under load, checking its reliability and scalability.</t>
+  </si>
+  <si>
+    <t>This might involve testing the API with a high number of requests to see if it can handle the load without performance degradation.</t>
+  </si>
+  <si>
+    <t>Ensures that the API is secure from external threats. This includes testing authentication, authorization, data encryption, and ensuring that sensitive data is not exposed.</t>
+  </si>
+  <si>
+    <t>Checks how the API handles incorrect inputs, errors, and edge cases.</t>
+  </si>
+  <si>
+    <t>This involves sending invalid or unexpected data to the API and ensuring it responds with appropriate error messages and status codes.</t>
+  </si>
+  <si>
+    <t>Involves testing the API with boundary values to see how it handles extreme cases, such as the maximum and minimum allowed values for inputs.</t>
+  </si>
+  <si>
+    <t>Verifies that the API integrates correctly with other APIs, services, or components.</t>
+  </si>
+  <si>
+    <t>Measures the API's response time, throughput, and resource usage under various conditions.</t>
+  </si>
+  <si>
+    <t>Ensures that the API adheres to industry standards, protocols, and guidelines, such as RESTful conventions, HTTP standards, or SOAP.</t>
+  </si>
+  <si>
+    <t>Types of API Testing</t>
+  </si>
+  <si>
+    <r>
+      <t>API Testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a type of software testing that involves testing application programming interfaces (APIs) directly and as part of</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Functionality Testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Validation Testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Load Testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Security Testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Error Handling Testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Boundary Testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Integration Testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Performance Testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Compliance Testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Functional Testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Verifies that the API performs its intended functions and returns the expected results.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Load Testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Assesses the API's performance under various load conditions to determine how it handles high traffic.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Performance Testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Evaluates the API's responsiveness and stability under normal and peak conditions, including response time and throughput.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Security Testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Ensures the API is secure from vulnerabilities and attacks. This includes testing for authentication, authorization, and data protection.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Reliability Testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Checks how often the API is available and operational, including its ability to recover from failures.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Compatibility Testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Verifies that the API works across different environments, devices, and platforms.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Integration Testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Ensures that the API integrates correctly with other systems or APIs and that data flows as expected between them.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Usability Testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Assesses how user-friendly the API is for developers, including its documentation and ease of integration.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>End-to-End Testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Validates the entire workflow from the beginning to end to ensure all components of the API work together as expected.</t>
+    </r>
+  </si>
+  <si>
+    <t>What is Responsive Testing?</t>
+  </si>
+  <si>
+    <t>Responsive Testing focuses on evaluating how well an application or website adjusts to different screen sizes, orientations, and devices.</t>
+  </si>
+  <si>
+    <t>Key aspects of Responsive Testing include:</t>
+  </si>
+  <si>
+    <r>
+      <t>Viewport Size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Checking how the application or website looks and functions at different screen sizes, including mobile phones, tablets, and desktops.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Orientation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Testing how the application or site adapts when switching between portrait and landscape modes on devices.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Resolution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Ensuring that the application or website maintains usability and visual integrity across different screen resolutions and pixel densities.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Touch and Mouse Interactions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Ensuring that interactive elements work well with both touchscreens and traditional mouse inputs.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Performance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Evaluating the load times and performance of the application or website on various devices and screen sizes.</t>
+    </r>
+  </si>
+  <si>
+    <t>Which types of tools are available for Responsive Testing</t>
+  </si>
+  <si>
+    <t>Here are some popular options:</t>
+  </si>
+  <si>
+    <t>Browser Developer Tools</t>
+  </si>
+  <si>
+    <t>Provides a device toolbar that allows you to simulate different devices, screen sizes, and orientations.</t>
+  </si>
+  <si>
+    <t>You can also inspect and modify HTML/CSS to see how changes affect responsiveness.</t>
+  </si>
+  <si>
+    <t>Includes a responsive design mode to test different screen sizes and resolutions.</t>
+  </si>
+  <si>
+    <t>Responsive Testing Tools</t>
+  </si>
+  <si>
+    <t>Offers a cloud-based platform to test your website or application across a wide range of real devices and browsers.</t>
+  </si>
+  <si>
+    <t>Provides a cloud-based testing environment with support for various devices, operating systems, and browsers.</t>
+  </si>
+  <si>
+    <t>Allows you to test websites across different browsers and operating systems in real-time.</t>
+  </si>
+  <si>
+    <t>Emulators and Simulators</t>
+  </si>
+  <si>
+    <t>Online Testing Platforms</t>
+  </si>
+  <si>
+    <t>Frameworks and Libraries</t>
+  </si>
+  <si>
+    <r>
+      <t>Bootstrap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: A popular CSS framework with responsive design features that help ensure your site looks good on all devices.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Foundation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Another responsive front-end framework that offers tools and components for designing responsive websites.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ResizeMyBrowser</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Lets you simulate different screen resolutions and viewports to check how your site adapts.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Screenfly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Provides a way to see how your site looks on various devices and screen sizes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Responsinator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: A web-based tool that shows how your website looks on popular devices.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Viewport Resizer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: A browser extension that lets you test different screen sizes and viewports directly within your browser.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BrowserStack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sauce Labs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LambdaTest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Chrome DevTools</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Firefox Developer Tools</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+  </si>
+  <si>
+    <t>What is the full form of .ipa, .apk</t>
+  </si>
+  <si>
+    <t>and manifest file and is used to distribute and install applications on Android devices.</t>
+  </si>
+  <si>
+    <r>
+      <t>.ipa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iOS App Store Package</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This file format is used for iOS applications. An </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.ipa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> file contains the app’s binary and is used to install apps on iOS devices through the Apple App Store or via ad-hoc distribution.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>.apk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Android Package Kit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This file format is used for Android applications. An </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>.apk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> file contains the app’s code, resources,</t>
+    </r>
+  </si>
+  <si>
+    <t>How to create step for to open the developer option mode ON?</t>
+  </si>
+  <si>
+    <t>Go to the “Settings” app on your Android device.</t>
+  </si>
+  <si>
+    <t>Scroll down and tap on “About phone” or “About device.” This is usually located at the bottom of the settings menu.</t>
+  </si>
+  <si>
+    <t>In the “About phone” section, find “Build number.” This is sometimes located under “Software information” or a similar sub-menu.</t>
+  </si>
+  <si>
+    <t>Tap on the “Build number” option 7 times in quick succession. You may be prompted to enter your device’s PIN or password to proceed.</t>
+  </si>
+  <si>
+    <t>After tapping the build number multiple times, you will see a message indicating that Developer Options have been enabled.</t>
+  </si>
+  <si>
+    <t>In the main settings menu, you will now see a new option called “Developer options” or “System” (which includes Developer Options).</t>
+  </si>
+  <si>
+    <t>Here's a brief outline for iOS:</t>
+  </si>
+  <si>
+    <r>
+      <t>Open Settings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Find About Phone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Locate Build Number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tap Build Number Multiple Times</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Developer Options Enabled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Access Developer Options</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iOS devices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Developer Mode is enabled differently and typically requires enrollment in the Apple Developer Program and using Xcode on a Mac.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Join Apple Developer Program</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Enroll in the Apple Developer Program, which may require a membership fee.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Install Xcode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Download and install Xcode from the Mac App Store.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Connect Device to Mac</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Connect your iOS device to your Mac using a USB cable.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Open Xcode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Launch Xcode on your Mac.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trust the Device</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: In Xcode, go to “Window” &gt; “Devices and Simulators” and select your device. You may need to trust the device for development.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Enable Developer Mode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Follow the prompts in Xcode to enable developer features on your iOS device.</t>
+    </r>
+  </si>
+  <si>
+    <t>Module-4 Automation Core Testing (Load Runner Up and Selenium IDE)</t>
+  </si>
+  <si>
+    <t>Which components have you used in Load Runner</t>
+  </si>
+  <si>
+    <t>In LoadRunner, the key components used in the script development and execution process are:</t>
+  </si>
+  <si>
+    <t>VuGen allows you to simulate user actions on a web application and generate a script that can be enhanced, debugged, and parameterized.</t>
+  </si>
+  <si>
+    <t>Components Used:</t>
+  </si>
+  <si>
+    <t>Scenario Creation:</t>
+  </si>
+  <si>
+    <t>Defines how many virtual users will run, what scripts they will execute, and how they will be distributed across different load generators.</t>
+  </si>
+  <si>
+    <t>Scheduling:</t>
+  </si>
+  <si>
+    <t>Sets up the timing and sequence of virtual user execution, including ramp-up and ramp-down periods.</t>
+  </si>
+  <si>
+    <t>Virtual Users Execution:</t>
+  </si>
+  <si>
+    <t>Each load generator runs multiple virtual users as defined by the Controller.</t>
+  </si>
+  <si>
+    <t>Resource Monitoring:</t>
+  </si>
+  <si>
+    <t>Ensures the load generator's resources are monitored to avoid bottlenecks that could skew test results.</t>
+  </si>
+  <si>
+    <t>Graphs and Reports:</t>
+  </si>
+  <si>
+    <t>Visualization tools to analyze response times, throughput, error rates, and other performance metrics.</t>
+  </si>
+  <si>
+    <t>Bottleneck Identification:</t>
+  </si>
+  <si>
+    <t>Helps in identifying performance bottlenecks by correlating different metrics and analyzing trends.</t>
+  </si>
+  <si>
+    <t>Comparison:</t>
+  </si>
+  <si>
+    <t>Allows comparison between different test runs to identify improvements or regressions in performance.</t>
+  </si>
+  <si>
+    <t>System Monitors:</t>
+  </si>
+  <si>
+    <t>Collects data on CPU, memory, disk, and network utilization from the servers under test.</t>
+  </si>
+  <si>
+    <t>Application Monitors:</t>
+  </si>
+  <si>
+    <t>Gathers performance data specific to the application under test, such as database queries, web server response times, etc.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VuGen (Virtual User Generator):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Purpose:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The main component for recording and developing scripts.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Recording:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Captures user interactions with the application and generates a script.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Scripting:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Allows for editing the recorded script, adding functions, logic, and custom code.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Correlation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Identifies and handles dynamic values that need to be correlated to ensure the script works across multiple iterations.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Parameterization:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Allows for replacing static input values (like usernames, passwords) with parameterized data to simulate different users.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Debugging:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Provides tools to run the script step-by-step and identify errors.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Controller:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Purpose:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Manages and executes load tests by running multiple instances of the VuGen scripts (virtual users) against the application under test.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Load Generators:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Purpose:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Machines or instances that run the virtual users. The Controller sends the scripts to these load generators to simulate multiple users.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Analysis:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Purpose:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Analyzes the test results generated by the Controller. It aggregates the data collected during the load test and provides insights into application performance.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Monitoring and Diagnostics:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Purpose:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tracks system-level performance metrics during the load test.</t>
+    </r>
+  </si>
+  <si>
+    <t>How can you set the number of Vusers in Load Runner</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11073,6 +13311,54 @@
       <name val="Arial Rounded MT Bold"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -11125,7 +13411,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -11174,6 +13460,22 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11471,7 +13773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C96"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
@@ -11864,7 +14166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A515"/>
   <sheetViews>
-    <sheetView topLeftCell="A213" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -14227,7 +16529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1484"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1459" workbookViewId="0">
+    <sheetView topLeftCell="A1459" workbookViewId="0">
       <pane xSplit="22212" topLeftCell="B1"/>
       <selection activeCell="A1486" sqref="A1486"/>
       <selection pane="topRight" activeCell="B1312" sqref="B1312"/>
@@ -22654,12 +24956,1734 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A312"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A313" sqref="A313"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="195" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="61.2">
+      <c r="A1" s="29" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="23.4">
+      <c r="A3" s="28" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18">
+      <c r="A4" s="26" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="18">
+      <c r="A5" s="26" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="18">
+      <c r="A6" s="26" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="21">
+      <c r="A8" s="27" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="18">
+      <c r="A9" s="11" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="18">
+      <c r="A10" s="11" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="18">
+      <c r="A11" s="11" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="18">
+      <c r="A12" s="11" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="21">
+      <c r="A14" s="27" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="18">
+      <c r="A15" s="11" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="18">
+      <c r="A16" s="11" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="18">
+      <c r="A17" s="11" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18">
+      <c r="A18" s="11" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="18">
+      <c r="A19" s="11" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="21">
+      <c r="A21" s="27" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="18">
+      <c r="A22" s="26" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="18">
+      <c r="A23" s="26" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="18">
+      <c r="A24" s="26"/>
+    </row>
+    <row r="25" spans="1:1" ht="18">
+      <c r="A25" s="26" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="18">
+      <c r="A26" s="26" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="20.399999999999999">
+      <c r="A27" s="30" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="20.399999999999999">
+      <c r="A28" s="30" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="20.399999999999999">
+      <c r="A29" s="30" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="18">
+      <c r="A30" s="26" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="20.399999999999999">
+      <c r="A31" s="30" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="20.399999999999999">
+      <c r="A32" s="30" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="20.399999999999999">
+      <c r="A33" s="30" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="18">
+      <c r="A34" s="26" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="20.399999999999999">
+      <c r="A35" s="30" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="20.399999999999999">
+      <c r="A36" s="30" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="20.399999999999999">
+      <c r="A37" s="30" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="18">
+      <c r="A38" s="26" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="20.399999999999999">
+      <c r="A39" s="30" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="20.399999999999999">
+      <c r="A40" s="30" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="18">
+      <c r="A41" s="26" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="20.399999999999999">
+      <c r="A42" s="30" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="20.399999999999999">
+      <c r="A43" s="30" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="21">
+      <c r="A45" s="27" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="18">
+      <c r="A46" s="26" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="18">
+      <c r="A47" s="26" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="18">
+      <c r="A48" s="26" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="18">
+      <c r="A49" s="11" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="18">
+      <c r="A50" s="26" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="18">
+      <c r="A51" s="26" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="18">
+      <c r="A52" s="26" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="18">
+      <c r="A53" s="26" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="18">
+      <c r="A54" s="26" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="18">
+      <c r="A55" s="26" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="18">
+      <c r="A56" s="26" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="18">
+      <c r="A57" s="26" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="18">
+      <c r="A58" s="26" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="18">
+      <c r="A59" s="26" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="18">
+      <c r="A60" s="26" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="18">
+      <c r="A61" s="26" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="18">
+      <c r="A62" s="26" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="18">
+      <c r="A63" s="26" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="18">
+      <c r="A64" s="26" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="21">
+      <c r="A66" s="27" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="18">
+      <c r="A67" s="26" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="18">
+      <c r="A68" s="26" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="18">
+      <c r="A69" s="26"/>
+    </row>
+    <row r="70" spans="1:1" ht="18">
+      <c r="A70" s="26" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="18">
+      <c r="A71" s="11" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="18">
+      <c r="A72" s="11" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="18">
+      <c r="A73" s="11" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="18">
+      <c r="A74" s="26" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="18">
+      <c r="A75" s="26" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="20.399999999999999">
+      <c r="A76" s="31" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="18">
+      <c r="A77" s="11" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="18">
+      <c r="A78" s="11" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="18">
+      <c r="A79" s="11" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="18">
+      <c r="A80" s="26" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18">
+      <c r="A81" s="26" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18">
+      <c r="A82" s="26" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18">
+      <c r="A83" s="11" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18">
+      <c r="A84" s="11" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18">
+      <c r="A85" s="11" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18">
+      <c r="A86" s="26" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18">
+      <c r="A87" s="26" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="18">
+      <c r="A88" s="26" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18">
+      <c r="A89" s="11" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18">
+      <c r="A90" s="11" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18">
+      <c r="A91" s="11" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="18">
+      <c r="A92" s="26" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18">
+      <c r="A93" s="26" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="20.399999999999999">
+      <c r="A94" s="31" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18">
+      <c r="A95" s="11" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="18">
+      <c r="A96" s="11" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18">
+      <c r="A97" s="11" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18">
+      <c r="A98" s="26" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18">
+      <c r="A99" s="26" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="20.399999999999999">
+      <c r="A100" s="31" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="18">
+      <c r="A102" s="26" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="18">
+      <c r="A103" s="26" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18">
+      <c r="A104" s="11" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="18">
+      <c r="A105" s="32" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18">
+      <c r="A106" s="11" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18">
+      <c r="A107" s="26" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="18">
+      <c r="A108" s="11" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="18">
+      <c r="A109" s="26" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="18">
+      <c r="A110" s="11" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="18">
+      <c r="A111" s="26" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="18">
+      <c r="A112" s="11" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="18">
+      <c r="A113" s="26" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="18">
+      <c r="A114" s="11" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="18">
+      <c r="A115" s="32" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="18">
+      <c r="A116" s="11" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="18">
+      <c r="A117" s="26" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="18">
+      <c r="A118" s="11" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" ht="18">
+      <c r="A119" s="26" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="18">
+      <c r="A121" s="26" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="18">
+      <c r="A122" s="26" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" ht="18">
+      <c r="A123" s="11" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="18">
+      <c r="A124" s="11" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="18">
+      <c r="A125" s="26" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="18">
+      <c r="A126" s="26" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="18">
+      <c r="A127" s="11" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="18">
+      <c r="A128" s="11" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="18">
+      <c r="A129" s="11" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="18">
+      <c r="A130" s="26" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="18">
+      <c r="A131" s="9" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="18">
+      <c r="A132" s="11" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="18">
+      <c r="A133" s="26" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="18">
+      <c r="A134" s="26" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="18">
+      <c r="A135" s="9" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="18">
+      <c r="A136" s="11" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="18">
+      <c r="A137" s="26" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="18">
+      <c r="A138" s="9" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="18">
+      <c r="A139" s="11" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="18">
+      <c r="A140" s="26" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="18">
+      <c r="A141" s="9" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" ht="18">
+      <c r="A142" s="11" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="18">
+      <c r="A143" s="26" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="18">
+      <c r="A144" s="9" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" ht="18">
+      <c r="A145" s="11" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="18">
+      <c r="A146" s="26" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="18">
+      <c r="A147" s="26" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="18">
+      <c r="A148" s="9" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" ht="18">
+      <c r="A149" s="11" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="18">
+      <c r="A150" s="26" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="18">
+      <c r="A151" s="26" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="18">
+      <c r="A153" s="26" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="18">
+      <c r="A154" s="11" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="18">
+      <c r="A155" s="11" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="18">
+      <c r="A156" s="26" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="18">
+      <c r="A157" s="26" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="18">
+      <c r="A158" s="11" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="18">
+      <c r="A159" s="26" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="18">
+      <c r="A160" s="26" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="18">
+      <c r="A161" s="11" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="18">
+      <c r="A162" s="11" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="18">
+      <c r="A163" s="26" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="18">
+      <c r="A164" s="26" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="18">
+      <c r="A165" s="11" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="18">
+      <c r="A166" s="26" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="18">
+      <c r="A167" s="26" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="18">
+      <c r="A168" s="11" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="18">
+      <c r="A169" s="11" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="18">
+      <c r="A170" s="26" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="18">
+      <c r="A171" s="26" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="18">
+      <c r="A172" s="11" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="18">
+      <c r="A173" s="26" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="18">
+      <c r="A174" s="26" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="18">
+      <c r="A175" s="11" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="18">
+      <c r="A176" s="11" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="18">
+      <c r="A177" s="26" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="18">
+      <c r="A178" s="11" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="18">
+      <c r="A179" s="33" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="18">
+      <c r="A180" s="11" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="18">
+      <c r="A181" s="11" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="18">
+      <c r="A182" s="26" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="18">
+      <c r="A183" s="11" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="18">
+      <c r="A184" s="33" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="18">
+      <c r="A185" s="11" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="18">
+      <c r="A186" s="11" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="18">
+      <c r="A187" s="32" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="18">
+      <c r="A188" s="11" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="18">
+      <c r="A189" s="33" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="18">
+      <c r="A190" s="11" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="18">
+      <c r="A191" s="11" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="18">
+      <c r="A192" s="26" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="18">
+      <c r="A193" s="26" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="18">
+      <c r="A194" s="11" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="18">
+      <c r="A195" s="33" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="18">
+      <c r="A196" s="11" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="18">
+      <c r="A197" s="11" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="18">
+      <c r="A198" s="32" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="18">
+      <c r="A199" s="11" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="18">
+      <c r="A200" s="33" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="12"/>
+    </row>
+    <row r="202" spans="1:1" ht="18">
+      <c r="A202" s="26" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" ht="18">
+      <c r="A203" s="11" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="18">
+      <c r="A204" s="26" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="18">
+      <c r="A205" s="26" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="18">
+      <c r="A206" s="9" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="18">
+      <c r="A207" s="11" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" ht="18">
+      <c r="A208" s="26" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="18">
+      <c r="A209" s="11" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="18">
+      <c r="A210" s="26" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="18">
+      <c r="A211" s="11" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="18">
+      <c r="A212" s="26" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" ht="18">
+      <c r="A213" s="26" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="18">
+      <c r="A214" s="11" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="18">
+      <c r="A215" s="26" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="18">
+      <c r="A216" s="11" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="18">
+      <c r="A217" s="26" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" ht="18">
+      <c r="A218" s="32" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="18">
+      <c r="A219" s="11" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="18">
+      <c r="A220" s="32" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="18">
+      <c r="A221" s="11" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="18">
+      <c r="A222" s="26" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" ht="18">
+      <c r="A223" s="11" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="18">
+      <c r="A224" s="26" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="18">
+      <c r="A225" s="11" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="18">
+      <c r="A226" s="33" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="12"/>
+    </row>
+    <row r="228" spans="1:1" ht="18">
+      <c r="A228" s="26" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="18">
+      <c r="A229" s="11" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="18">
+      <c r="A230" s="11" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="18">
+      <c r="A231" s="11" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="18">
+      <c r="A232" s="11" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="18">
+      <c r="A233" s="11" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="18">
+      <c r="A234" s="11" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="18">
+      <c r="A235" s="11" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="18">
+      <c r="A236" s="11" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" ht="18">
+      <c r="A237" s="11" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="18">
+      <c r="A239" s="26" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="18">
+      <c r="A240" s="26" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" ht="18">
+      <c r="A241" s="26" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" ht="18">
+      <c r="A242" s="26"/>
+    </row>
+    <row r="243" spans="1:1" ht="18">
+      <c r="A243" s="11" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="18">
+      <c r="A244" s="11" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" ht="18">
+      <c r="A245" s="11" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" ht="18">
+      <c r="A246" s="11" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" ht="18">
+      <c r="A247" s="34" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="18">
+      <c r="A249" s="26" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="18">
+      <c r="A250" s="26" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" ht="18">
+      <c r="A251" s="26" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" ht="18">
+      <c r="A252" s="11" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" ht="18">
+      <c r="A253" s="26" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" ht="18">
+      <c r="A254" s="26" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" ht="18">
+      <c r="A255" s="11" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" ht="18">
+      <c r="A256" s="26" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="18">
+      <c r="A258" s="11" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="18">
+      <c r="A259" s="11" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" ht="18">
+      <c r="A260" s="26" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="18">
+      <c r="A261" s="11" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" ht="18">
+      <c r="A262" s="26" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" ht="18">
+      <c r="A263" s="11" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" ht="18">
+      <c r="A264" s="26" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" ht="18">
+      <c r="A266" s="9" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" ht="18">
+      <c r="A267" s="11" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" ht="18">
+      <c r="A268" s="11" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" ht="18">
+      <c r="A270" s="9" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" ht="18">
+      <c r="A271" s="11" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="18">
+      <c r="A272" s="11" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" ht="18">
+      <c r="A274" s="9" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" ht="18">
+      <c r="A275" s="11" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" ht="18">
+      <c r="A276" s="11" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" ht="18">
+      <c r="A278" s="26" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" ht="18">
+      <c r="A279" s="11" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" ht="20.399999999999999">
+      <c r="A280" s="26" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" ht="18">
+      <c r="A281" s="11" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" ht="20.399999999999999">
+      <c r="A282" s="26" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" ht="18">
+      <c r="A283" s="26" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" ht="18">
+      <c r="A285" s="26" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" ht="18">
+      <c r="A286" s="11" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" ht="18">
+      <c r="A287" s="26" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" ht="18">
+      <c r="A288" s="11" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" ht="18">
+      <c r="A289" s="26" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" ht="18">
+      <c r="A290" s="11" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" ht="18">
+      <c r="A291" s="26" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" ht="18">
+      <c r="A292" s="11" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" ht="18">
+      <c r="A293" s="26" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" ht="18">
+      <c r="A294" s="11" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" ht="18">
+      <c r="A295" s="26" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" ht="18">
+      <c r="A296" s="11" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" ht="18">
+      <c r="A297" s="26" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" ht="18">
+      <c r="A298" s="26"/>
+    </row>
+    <row r="299" spans="1:1" ht="18">
+      <c r="A299" s="26" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" ht="18">
+      <c r="A300" s="26" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" ht="18">
+      <c r="A301" s="26"/>
+    </row>
+    <row r="302" spans="1:1" ht="18">
+      <c r="A302" s="11" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" ht="18">
+      <c r="A303" s="11" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" ht="18">
+      <c r="A304" s="11" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" ht="18">
+      <c r="A305" s="11" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" ht="18">
+      <c r="A306" s="11" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" ht="18">
+      <c r="A307" s="11" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" s="7"/>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" s="7"/>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="191.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="33.6">
+      <c r="A1" s="35" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="3" spans="1:7" ht="21">
+      <c r="A3" s="27" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="21">
+      <c r="A4" s="27" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="21">
+      <c r="A5" s="27"/>
+    </row>
+    <row r="6" spans="1:7" ht="18">
+      <c r="A6" s="26" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18">
+      <c r="A7" s="11" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18">
+      <c r="A8" s="26" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18">
+      <c r="A9" s="26"/>
+    </row>
+    <row r="10" spans="1:7" ht="18">
+      <c r="A10" s="11" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18">
+      <c r="A11" s="11" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18">
+      <c r="A12" s="11" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18">
+      <c r="A13" s="11" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18">
+      <c r="A14" s="11" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18">
+      <c r="A15" s="11" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18">
+      <c r="A16" s="26"/>
+    </row>
+    <row r="17" spans="1:1" ht="18">
+      <c r="A17" s="26" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18">
+      <c r="A18" s="11" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="18">
+      <c r="A19" s="26"/>
+    </row>
+    <row r="20" spans="1:1" ht="18">
+      <c r="A20" s="11" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="18">
+      <c r="A21" s="26" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="18">
+      <c r="A22" s="26" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="18">
+      <c r="A23" s="26" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="18">
+      <c r="A24" s="26" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="18">
+      <c r="A25" s="26"/>
+    </row>
+    <row r="26" spans="1:1" ht="18">
+      <c r="A26" s="26" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="18">
+      <c r="A27" s="11" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="18">
+      <c r="A28" s="26"/>
+    </row>
+    <row r="29" spans="1:1" ht="18">
+      <c r="A29" s="11" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="18">
+      <c r="A30" s="11" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="18">
+      <c r="A31" s="26" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="18">
+      <c r="A32" s="26" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="18">
+      <c r="A33" s="26" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="18">
+      <c r="A34" s="26"/>
+    </row>
+    <row r="35" spans="1:1" ht="18">
+      <c r="A35" s="26" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="18">
+      <c r="A36" s="11" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="18">
+      <c r="A37" s="26"/>
+    </row>
+    <row r="38" spans="1:1" ht="18">
+      <c r="A38" s="11" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="18">
+      <c r="A39" s="26" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="18">
+      <c r="A40" s="26" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="18">
+      <c r="A41" s="11" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="18">
+      <c r="A42" s="26" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="18">
+      <c r="A43" s="26" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="18">
+      <c r="A44" s="26" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="18">
+      <c r="A45" s="26"/>
+    </row>
+    <row r="46" spans="1:1" ht="18">
+      <c r="A46" s="26" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="18">
+      <c r="A47" s="11" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="18">
+      <c r="A48" s="26"/>
+    </row>
+    <row r="49" spans="1:1" ht="18">
+      <c r="A49" s="11" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="18">
+      <c r="A50" s="26" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="18">
+      <c r="A51" s="26" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="18">
+      <c r="A52" s="11" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="18">
+      <c r="A53" s="26" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="21">
+      <c r="A55" s="27" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/kawas (Autosaved) (Autosaved).xlsx
+++ b/kawas (Autosaved) (Autosaved).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="132" windowWidth="22932" windowHeight="9240" activeTab="5"/>
+    <workbookView xWindow="96" yWindow="132" windowWidth="22932" windowHeight="9240" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="HLR TEST CASE" sheetId="5" r:id="rId4"/>
     <sheet name="Module 3" sheetId="6" r:id="rId5"/>
     <sheet name="Module-4" sheetId="7" r:id="rId6"/>
+    <sheet name="Module – 5" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2558" uniqueCount="2262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2746" uniqueCount="2439">
   <si>
     <t xml:space="preserve">Amazon functional requirement or non functional requirement
 </t>
@@ -13220,13 +13221,1804 @@
   </si>
   <si>
     <t>How can you set the number of Vusers in Load Runner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                               Module – 5 (Selenium IDE)</t>
+  </si>
+  <si>
+    <t>What is Automation Testing</t>
+  </si>
+  <si>
+    <t>Key Features of Automation Testing:</t>
+  </si>
+  <si>
+    <t>Scripts are created using programming languages or testing frameworks to perform specific test actions.</t>
+  </si>
+  <si>
+    <t>Automation tools execute these scripts and log results.</t>
+  </si>
+  <si>
+    <t>Once created, automated test cases can be reused across multiple testing cycles without manual intervention.</t>
+  </si>
+  <si>
+    <t>Automated tests are often integrated into continuous integration/continuous delivery (CI/CD) pipelines to ensure that code changes do not break existing functionality.</t>
+  </si>
+  <si>
+    <t>Popular Automation Testing Tools:</t>
+  </si>
+  <si>
+    <t>Benefits:</t>
+  </si>
+  <si>
+    <t>Selenium IDE (Integrated Development Environment) is a browser-based automation tool that allows users to record, edit, and playback test cases.</t>
+  </si>
+  <si>
+    <t>Which Are The Browsers Supported By Selenium Ide?</t>
+  </si>
+  <si>
+    <t>It supports several major browsers, enabling cross-browser testing.</t>
+  </si>
+  <si>
+    <t>Browsers supported by Selenium IDE:</t>
+  </si>
+  <si>
+    <t>Selenium IDE is available as a Chrome extension.</t>
+  </si>
+  <si>
+    <t>It works seamlessly for creating and running test scripts within Chrome.</t>
+  </si>
+  <si>
+    <t>Selenium IDE was originally developed for Firefox and remains fully supported.</t>
+  </si>
+  <si>
+    <t>It also functions as a Firefox extension.</t>
+  </si>
+  <si>
+    <t>These two browsers (Chrome and Firefox) are officially supported by Selenium IDE.</t>
+  </si>
+  <si>
+    <t>For other browsers like Edge or Safari, Selenium WebDriver is recommended for automation testing, as Selenium IDE is specifically designed for these core browsers.</t>
+  </si>
+  <si>
+    <t>Automation testing offers a wide range of benefits, particularly for large-scale projects and continuous development environments.</t>
+  </si>
+  <si>
+    <t>What are the benefits of Automation Testing?</t>
+  </si>
+  <si>
+    <t>Faster Execution and Time Savings</t>
+  </si>
+  <si>
+    <t>Automation testing is significantly faster than manual testing.</t>
+  </si>
+  <si>
+    <t>Scripts can run on multiple machines, and large numbers of tests can be executed in parallel, reducing testing time.</t>
+  </si>
+  <si>
+    <t>Automated tests can be scheduled to run overnight or at specific intervals, increasing productivity and ensuring timely feedback.</t>
+  </si>
+  <si>
+    <t>Improved Accuracy</t>
+  </si>
+  <si>
+    <t>Manual testing is prone to human errors, especially during repetitive tasks.</t>
+  </si>
+  <si>
+    <t>Automated tests run consistently and exactly the same way every time, ensuring accuracy and precision.</t>
+  </si>
+  <si>
+    <t>Automation frameworks often allow for modular test development, where test scripts can be reused in multiple scenarios.</t>
+  </si>
+  <si>
+    <t>Support for Continuous Integration and Continuous Deployment (CI/CD)</t>
+  </si>
+  <si>
+    <t>Automation testing plays a crucial role in modern DevOps environments.</t>
+  </si>
+  <si>
+    <t>Automated tests can be integrated into CI/CD pipelines, providing immediate feedback to developers when code changes are made.</t>
+  </si>
+  <si>
+    <t>Broader Test Coverage</t>
+  </si>
+  <si>
+    <t>This improves the overall quality of the software, as more functionalities and user journeys can be tested automatically.</t>
+  </si>
+  <si>
+    <t>Cost-Effective in the Long Term</t>
+  </si>
+  <si>
+    <t>Especially for regression testing, automation saves significant costs by running the same set of tests repeatedly without manual intervention.</t>
+  </si>
+  <si>
+    <t>Early Bug Detection</t>
+  </si>
+  <si>
+    <t>Automated tests can be run early in the development process, leading to early bug detection.</t>
+  </si>
+  <si>
+    <t>This helps developers fix issues before they become more difficult and costly to address.</t>
+  </si>
+  <si>
+    <t>Increased Test Coverage for Large Systems</t>
+  </si>
+  <si>
+    <t>Automation allows testers to run tests across different configurations, browsers, operating</t>
+  </si>
+  <si>
+    <t>systems, and hardware, something that would be time-consuming and impractical with manual testing.</t>
+  </si>
+  <si>
+    <t>Consistency and Reliability</t>
+  </si>
+  <si>
+    <t>Tests can also be automatically triggered in response to code changes, ensuring continuous quality checks.</t>
+  </si>
+  <si>
+    <t>Better Reporting and Insights</t>
+  </si>
+  <si>
+    <t>Automation testing tools usually provide detailed test reports with logs, screenshots, and other data to help teams quickly identify and address issues.</t>
+  </si>
+  <si>
+    <t>These reports are generated automatically, providing clear insights into test coverage and software quality.</t>
+  </si>
+  <si>
+    <t>What are the advantages of Selenium?</t>
+  </si>
+  <si>
+    <t>Selenium is one of the most popular tools for automation testing, particularly for web applications.</t>
+  </si>
+  <si>
+    <t>It offers a variety of advantages that make it a go-to choice for many testers and developers.</t>
+  </si>
+  <si>
+    <t>Open-Source and Free</t>
+  </si>
+  <si>
+    <t>Supports Multiple Programming Languages</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>Kotlin</t>
+  </si>
+  <si>
+    <t>This flexibility allows testers to write scripts in the language they are most comfortable with or that best fits their project requirements.</t>
+  </si>
+  <si>
+    <t>Cross-Browser Testing</t>
+  </si>
+  <si>
+    <t>Selenium supports testing across multiple browsers, making it an ideal tool for cross-browser testing.</t>
+  </si>
+  <si>
+    <t>Google Chrome</t>
+  </si>
+  <si>
+    <t>Mozilla Firefox</t>
+  </si>
+  <si>
+    <t>Microsoft Edge</t>
+  </si>
+  <si>
+    <t>Safari</t>
+  </si>
+  <si>
+    <t>Opera</t>
+  </si>
+  <si>
+    <t>Cross-Platform Testing</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>macOS</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Support for Multiple Test Frameworks</t>
+  </si>
+  <si>
+    <t>These integrations help in organizing and running test suites and generating detailed test reports.</t>
+  </si>
+  <si>
+    <t>Parallel Test Execution</t>
+  </si>
+  <si>
+    <t>on different machines, browsers, and operating systems.</t>
+  </si>
+  <si>
+    <t>Easy Integration with CI/CD Tools</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Maven</t>
+  </si>
+  <si>
+    <t>CircleCI</t>
+  </si>
+  <si>
+    <t>GitLab CI</t>
+  </si>
+  <si>
+    <t>This integration helps in automating the entire testing process, from build to deployment, enabling faster feedback for development teams.</t>
+  </si>
+  <si>
+    <t>Flexibility in Scripting</t>
+  </si>
+  <si>
+    <t>Highly Extensible</t>
+  </si>
+  <si>
+    <t>Handling Dynamic Web Content</t>
+  </si>
+  <si>
+    <t>Scalability with Selenium Grid</t>
+  </si>
+  <si>
+    <t>It enhances testing efficiency and reduces execution time, making it ideal for projects with a large number of test cases.</t>
+  </si>
+  <si>
+    <t>and other browser-based activities, making it a versatile tool for web automation in general.</t>
+  </si>
+  <si>
+    <t>Lightweight Tool</t>
+  </si>
+  <si>
+    <t>Selenium is relatively lightweight, and it doesn’t require significant resources to set up and run tests.</t>
+  </si>
+  <si>
+    <t>It’s easy to install and configure across multiple environments, allowing for quick and efficient automation testing.</t>
+  </si>
+  <si>
+    <t>Multiple Language and Internationalization Support</t>
+  </si>
+  <si>
+    <t>This is essential for global applications that are used across different regions.</t>
+  </si>
+  <si>
+    <t>Why testers should opt for Selenium and not QTP?</t>
+  </si>
+  <si>
+    <t>Testers often face the decision of whether to choose Selenium or QTP</t>
+  </si>
+  <si>
+    <t>(QuickTest Professional, now known as Micro Focus Unified Functional Testing or UFT) for automation testing.</t>
+  </si>
+  <si>
+    <t>Both tools are popular, but Selenium has several advantages over QTP, especially in modern, dynamic testing environments.</t>
+  </si>
+  <si>
+    <t>Cost (Selenium is Free and Open-Source)</t>
+  </si>
+  <si>
+    <t>be expensive, especially for small to medium-sized organizations.</t>
+  </si>
+  <si>
+    <t>Support for Multiple Programming Languages</t>
+  </si>
+  <si>
+    <t>expertise in other programming languages or teams that need flexibility.</t>
+  </si>
+  <si>
+    <t>Cross-Browser and Cross-Platform Testing</t>
+  </si>
+  <si>
+    <t>While UFT does support multiple operating systems, its cross-browser compatibility is not as extensive or flexible as Selenium’s.</t>
+  </si>
+  <si>
+    <t>Support for Mobile Testing</t>
+  </si>
+  <si>
+    <t>Flexibility and Extensibility</t>
+  </si>
+  <si>
+    <t>TestNG or JUnit for test case management.</t>
+  </si>
+  <si>
+    <t>Jenkins, CircleCI, or GitLab CI for Continuous Integration/Continuous Delivery (CI/CD).</t>
+  </si>
+  <si>
+    <t>Allure, ExtentReports, or others for advanced reporting.</t>
+  </si>
+  <si>
+    <t>It’s more suited to enterprises that stick to Micro Focus's ecosystem of products.</t>
+  </si>
+  <si>
+    <t>Faster Development and Execution of Tests</t>
+  </si>
+  <si>
+    <t>Since it is lightweight and doesn’t have the overhead that comes with commercial tools, scripts often run faster.</t>
+  </si>
+  <si>
+    <t>Parallel Testing and Grid Support</t>
+  </si>
+  <si>
+    <t>This reduces the overall test execution time, making it ideal for large-scale regression testing and continuous testing.</t>
+  </si>
+  <si>
+    <t>as in Selenium, and it doesn’t offer as robust a grid system for distributed testing.</t>
+  </si>
+  <si>
+    <t>Support for Modern Web Technologies</t>
+  </si>
+  <si>
+    <t>especially with its wide variety of community-contributed libraries and tools.</t>
+  </si>
+  <si>
+    <t>No Vendor Lock-In</t>
+  </si>
+  <si>
+    <t>it harder to adapt to new technologies or toolchains outside the Micro Focus suite.</t>
+  </si>
+  <si>
+    <t>Scalability</t>
+  </si>
+  <si>
+    <t>CI/CD and Agile Compatibility</t>
+  </si>
+  <si>
+    <t>Its compatibility with popular CI/CD tools like Jenkins, Travis CI, and GitLab CI makes it ideal for rapid development cycles.</t>
+  </si>
+  <si>
+    <t>or fast as Selenium for continuous testing in Agile environments.</t>
+  </si>
+  <si>
+    <r>
+      <t>Automation testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the process of using specialized software tools to control the execution of tests and compare the actual outcomes with expected results.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Test Script Development</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Test Execution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Reusability</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Continuous Integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Selenium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: For web applications.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>JUnit/TestNG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: For Java applications.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Appium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: For mobile application testing.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Postman</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: For API testing.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cypress</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: For end-to-end testing in modern web applications.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Speed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Tests can run much faster than manual testing.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Consistency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: The same tests run consistently without human error.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Early Bug Detection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Bugs are identified early in the development cycle.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cost-Effective</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Reduces the manual effort in the long term, especially for large projects.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Google Chrome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mozilla Firefox</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reusability of Test Scripts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cost-Effective</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Selenium is an open-source tool, meaning it’s free to use. There are no licensing fees, making it accessible for small and large projects alike.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Active Community Support</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: The tool has a large and active community of users and developers, providing ongoing support, updates, and new features.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>JUnit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TestNG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for test case management and reporting in Java.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>NUnit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for C# testing.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Selenium supports </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>parallel test execution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> through the use of Selenium Grid, allowing tests to be run simultaneously</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Support for Testing Different Web Elements</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Selenium can be used to test a wide range of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>web elements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> like buttons, text boxes, drop-downs, checkboxes, and more.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It supports testing dynamic web applications with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AJAX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JavaScript</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> interactions, making it versatile for modern web apps.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Selenium WebDriver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provides control over the browser, allowing for custom scripts tailored to complex testing needs.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>TestNG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for test case management.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Allure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Extent Reports</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for reporting.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>JMeter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for performance testing.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Selenium is highly capable of handling dynamic web applications that use technologies like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AJAX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JavaScript</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>React</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Selenium Grid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> allows for running tests in parallel across different machines and environments, which is especially useful for large-scale testing operations.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Browser Automation Beyond Testing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Selenium is not limited to just test automation. It can be used for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>web scraping</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>automating repetitive web tasks</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Selenium supports testing applications with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>multi-language</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> support and is ideal for websites that need testing in different locales and languages.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Selenium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is completely free and open-source, meaning there are no licensing fees or costs associated with it.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>QTP/UFT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, on the other hand, is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commercial tool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and requires purchasing a license, which can</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>QTP/UFT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, in contrast, primarily supports only </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VBScript</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. This limited language support can be a disadvantage for teams with</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It also supports testing on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>multiple operating systems</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Windows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>macOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Linux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>QTP/UFT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is more limited, primarily supporting </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Internet Explorer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Edge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for browser automation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Selenium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, through tools like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Appium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, can be used to automate both web and mobile applications, supporting iOS and Android.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>QTP/UFT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> does support mobile application testing, but requires the use of additional Micro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Focus tools, such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UFT Mobile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, which can increase costs and complexity.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>QTP/UFT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is less flexible when it comes to integrating with third-party tools and frameworks, limiting its extensibility.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Selenium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is known for its speed in both test execution and test development.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>QTP/UFT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> scripts tend to have more overhead and can be slower to execute, especially for large test suites, which can result in longer testing cycles.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>QTP/UFT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> has some parallel testing capabilities, but they are not as extensive or easy to implement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Selenium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is widely used to test modern, dynamic web applications built with technologies like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AJAX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AngularJS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>React</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vue.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and more.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">While </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QTP/UFT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can support these technologies, Selenium tends to offer better and faster support for modern web frameworks,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Selenium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> does not lock you into a specific vendor ecosystem. It can be integrated with various tools for CI/CD, reporting, and test management.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>QTP/UFT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tends to lock users into the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Micro Focus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ecosystem, which can limit flexibility, increase costs, and make</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Selenium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can be scaled for large test suites and large teams.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>QTP/UFT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can be harder to scale, particularly for cloud-based or remote testing, and typically involves additional licensing and infrastructure management.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Testing in Real User Environments</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Selenium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> provides real browser automation, meaning that it tests in real-world scenarios by mimicking user interactions in real browsers.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>QTP/UFT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> relies on a more emulated or virtualized browser environment, which may not always fully replicate a real user experience.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Selenium</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fits well into </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DevOps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> workflows, supporting frequent and fast releases by enabling </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>continuous integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>continuous testing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>QTP/UFT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can be integrated into CI/CD pipelines, but it is more complex and not as lightweight</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13359,6 +15151,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -13411,7 +15210,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -13476,6 +15275,7 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -26422,7 +28222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
@@ -26686,4 +28486,1102 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A235"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="190.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="28.8">
+      <c r="A1" s="36" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18">
+      <c r="A3" s="11" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="18">
+      <c r="A4" s="11" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="18">
+      <c r="A5" s="26" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="18">
+      <c r="A6" s="11" t="s">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="18">
+      <c r="A7" s="26" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="18">
+      <c r="A8" s="11" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="18">
+      <c r="A9" s="26" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="18">
+      <c r="A10" s="11" t="s">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="18">
+      <c r="A11" s="26" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="18">
+      <c r="A12" s="11" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="18">
+      <c r="A13" s="26" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="18">
+      <c r="A14" s="26"/>
+    </row>
+    <row r="15" spans="1:1" ht="18">
+      <c r="A15" s="26" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="18">
+      <c r="A16" s="11" t="s">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="18">
+      <c r="A17" s="11" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18">
+      <c r="A18" s="11" t="s">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="18">
+      <c r="A19" s="11" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="18">
+      <c r="A20" s="11" t="s">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="18">
+      <c r="A21" s="26"/>
+    </row>
+    <row r="22" spans="1:1" ht="18">
+      <c r="A22" s="26" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="18">
+      <c r="A23" s="11" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="18">
+      <c r="A24" s="11" t="s">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="18">
+      <c r="A25" s="11" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="18">
+      <c r="A26" s="11" t="s">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="18">
+      <c r="A27" s="26"/>
+    </row>
+    <row r="28" spans="1:1" ht="18">
+      <c r="A28" s="11" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="18">
+      <c r="A29" s="26" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="18">
+      <c r="A30" s="26" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="18">
+      <c r="A31" s="26"/>
+    </row>
+    <row r="32" spans="1:1" ht="18">
+      <c r="A32" s="26" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="18">
+      <c r="A33" s="11" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="18">
+      <c r="A34" s="32" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="18">
+      <c r="A35" s="32" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="18">
+      <c r="A36" s="32"/>
+    </row>
+    <row r="37" spans="1:1" ht="18">
+      <c r="A37" s="11" t="s">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="18">
+      <c r="A38" s="26" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="18">
+      <c r="A39" s="26" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="18">
+      <c r="A40" s="26"/>
+    </row>
+    <row r="41" spans="1:1" ht="18">
+      <c r="A41" s="26" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="18">
+      <c r="A42" s="26" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="18">
+      <c r="A43" s="26"/>
+    </row>
+    <row r="44" spans="1:1" ht="18">
+      <c r="A44" s="26" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="18">
+      <c r="A45" s="26" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="18">
+      <c r="A46" s="26"/>
+    </row>
+    <row r="47" spans="1:1" ht="18">
+      <c r="A47" s="11" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="18">
+      <c r="A48" s="26" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="18">
+      <c r="A49" s="26" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="18">
+      <c r="A50" s="26" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="18">
+      <c r="A51" s="26"/>
+    </row>
+    <row r="52" spans="1:1" ht="18">
+      <c r="A52" s="11" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="18">
+      <c r="A53" s="26" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="18">
+      <c r="A54" s="26" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="18">
+      <c r="A55" s="26"/>
+    </row>
+    <row r="56" spans="1:1" ht="18">
+      <c r="A56" s="26" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="18">
+      <c r="A57" s="26" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="18">
+      <c r="A58" s="26"/>
+    </row>
+    <row r="59" spans="1:1" ht="18">
+      <c r="A59" s="11" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="18">
+      <c r="A60" s="26" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="18">
+      <c r="A61" s="26" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="18">
+      <c r="A62" s="26"/>
+    </row>
+    <row r="63" spans="1:1" ht="18">
+      <c r="A63" s="11" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="18">
+      <c r="A64" s="26" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="18">
+      <c r="A65" s="26"/>
+    </row>
+    <row r="66" spans="1:1" ht="18">
+      <c r="A66" s="11" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="18">
+      <c r="A67" s="26" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="18">
+      <c r="A68" s="26"/>
+    </row>
+    <row r="69" spans="1:1" ht="18">
+      <c r="A69" s="11" t="s">
+        <v>2298</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="18">
+      <c r="A70" s="26" t="s">
+        <v>2299</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="18">
+      <c r="A71" s="26" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="18">
+      <c r="A72" s="26"/>
+    </row>
+    <row r="73" spans="1:1" ht="18">
+      <c r="A73" s="11" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="18">
+      <c r="A74" s="26" t="s">
+        <v>2302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="18">
+      <c r="A75" s="26" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="18">
+      <c r="A76" s="26"/>
+    </row>
+    <row r="77" spans="1:1" ht="18">
+      <c r="A77" s="11" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="18">
+      <c r="A78" s="26" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="18">
+      <c r="A79" s="26"/>
+    </row>
+    <row r="80" spans="1:1" ht="18">
+      <c r="A80" s="11" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="18">
+      <c r="A81" s="26" t="s">
+        <v>2307</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="18">
+      <c r="A82" s="26" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="18">
+      <c r="A83" s="26"/>
+    </row>
+    <row r="84" spans="1:1" ht="18">
+      <c r="A84" s="11" t="s">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="18">
+      <c r="A85" s="26" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="18">
+      <c r="A86" s="26" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="18">
+      <c r="A87" s="26"/>
+    </row>
+    <row r="88" spans="1:1" ht="18">
+      <c r="A88" s="11" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="18">
+      <c r="A89" s="11" t="s">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="18">
+      <c r="A90" s="11" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18">
+      <c r="A91" s="26"/>
+    </row>
+    <row r="92" spans="1:1" ht="18">
+      <c r="A92" s="11" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="18">
+      <c r="A93" s="11" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="18">
+      <c r="A94" s="11" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="18">
+      <c r="A95" s="11" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="18">
+      <c r="A96" s="11" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="18">
+      <c r="A97" s="11" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="18">
+      <c r="A98" s="11" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="18">
+      <c r="A99" s="26" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="18">
+      <c r="A100" s="26"/>
+    </row>
+    <row r="101" spans="1:1" ht="18">
+      <c r="A101" s="11" t="s">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="18">
+      <c r="A102" s="26" t="s">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="18">
+      <c r="A103" s="11" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18">
+      <c r="A104" s="11" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="18">
+      <c r="A105" s="11" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="18">
+      <c r="A106" s="11" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="18">
+      <c r="A107" s="11" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="18">
+      <c r="A108" s="26"/>
+    </row>
+    <row r="109" spans="1:1" ht="18">
+      <c r="A109" s="11" t="s">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="18">
+      <c r="A110" s="11" t="s">
+        <v>2329</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="18">
+      <c r="A111" s="11" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="18">
+      <c r="A112" s="11" t="s">
+        <v>2331</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="18">
+      <c r="A113" s="26"/>
+    </row>
+    <row r="114" spans="1:1" ht="18">
+      <c r="A114" s="11" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="18">
+      <c r="A115" s="11" t="s">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="18">
+      <c r="A116" s="11" t="s">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="18">
+      <c r="A117" s="26" t="s">
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" ht="18">
+      <c r="A118" s="26"/>
+    </row>
+    <row r="119" spans="1:1" ht="18">
+      <c r="A119" s="11" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" ht="18">
+      <c r="A120" s="26" t="s">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" ht="18">
+      <c r="A121" s="26" t="s">
+        <v>2335</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" ht="18">
+      <c r="A122" s="26"/>
+    </row>
+    <row r="123" spans="1:1" ht="18">
+      <c r="A123" s="11" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="18">
+      <c r="A124" s="11" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" ht="18">
+      <c r="A125" s="11" t="s">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="18">
+      <c r="A126" s="11" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" ht="18">
+      <c r="A127" s="11" t="s">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" ht="18">
+      <c r="A128" s="26" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="18">
+      <c r="A129" s="26"/>
+    </row>
+    <row r="130" spans="1:1" ht="18">
+      <c r="A130" s="26" t="s">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="18">
+      <c r="A131" s="26" t="s">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="18">
+      <c r="A132" s="26" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="18">
+      <c r="A133" s="26"/>
+    </row>
+    <row r="134" spans="1:1" ht="18">
+      <c r="A134" s="11" t="s">
+        <v>2342</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="18">
+      <c r="A135" s="11" t="s">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="18">
+      <c r="A136" s="26"/>
+    </row>
+    <row r="137" spans="1:1" ht="18">
+      <c r="A137" s="11" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" ht="18">
+      <c r="A138" s="11" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" ht="18">
+      <c r="A139" s="11" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" ht="18">
+      <c r="A140" s="11" t="s">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" ht="18">
+      <c r="A141" s="26"/>
+    </row>
+    <row r="142" spans="1:1" ht="18">
+      <c r="A142" s="11" t="s">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" ht="18">
+      <c r="A143" s="26" t="s">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" ht="18">
+      <c r="A144" s="26"/>
+    </row>
+    <row r="145" spans="1:1" ht="18">
+      <c r="A145" s="11" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="18">
+      <c r="A146" s="11" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" ht="18">
+      <c r="A147" s="26" t="s">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="18">
+      <c r="A148" s="26"/>
+    </row>
+    <row r="149" spans="1:1" ht="18">
+      <c r="A149" s="26" t="s">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="18">
+      <c r="A150" s="26" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" ht="18">
+      <c r="A151" s="26" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="18">
+      <c r="A152" s="26"/>
+    </row>
+    <row r="153" spans="1:1" ht="18">
+      <c r="A153" s="11" t="s">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" ht="18">
+      <c r="A154" s="26" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="18">
+      <c r="A155" s="26" t="s">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="18">
+      <c r="A156" s="26"/>
+    </row>
+    <row r="157" spans="1:1" ht="18">
+      <c r="A157" s="11" t="s">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="18">
+      <c r="A158" s="26" t="s">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="18">
+      <c r="A159" s="26" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="18">
+      <c r="A160" s="26"/>
+    </row>
+    <row r="161" spans="1:1" ht="18">
+      <c r="A161" s="11" t="s">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="18">
+      <c r="A162" s="26" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="18">
+      <c r="A163" s="26" t="s">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="18">
+      <c r="A164" s="26" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="18">
+      <c r="A165" s="26"/>
+    </row>
+    <row r="166" spans="1:1" ht="18">
+      <c r="A166" s="11" t="s">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="18">
+      <c r="A167" s="11" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="18">
+      <c r="A168" s="11" t="s">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="18">
+      <c r="A169" s="26" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="18">
+      <c r="A170" s="26"/>
+    </row>
+    <row r="171" spans="1:1" ht="18">
+      <c r="A171" s="11" t="s">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="18">
+      <c r="A172" s="26" t="s">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="18">
+      <c r="A173" s="26" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="18">
+      <c r="A174" s="26" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="18">
+      <c r="A175" s="26" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="18">
+      <c r="A176" s="26" t="s">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="18">
+      <c r="A177" s="26" t="s">
+        <v>2319</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="18">
+      <c r="A178" s="11" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="18">
+      <c r="A179" s="26" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="18">
+      <c r="A180" s="26"/>
+    </row>
+    <row r="181" spans="1:1" ht="18">
+      <c r="A181" s="11" t="s">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="18">
+      <c r="A182" s="26" t="s">
+        <v>2323</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="18">
+      <c r="A183" s="26" t="s">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="18">
+      <c r="A184" s="26" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="18">
+      <c r="A185" s="26" t="s">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="18">
+      <c r="A186" s="26" t="s">
+        <v>2327</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="18">
+      <c r="A187" s="26" t="s">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="18">
+      <c r="A188" s="11" t="s">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="18">
+      <c r="A189" s="26" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="18">
+      <c r="A190" s="26"/>
+    </row>
+    <row r="191" spans="1:1" ht="18">
+      <c r="A191" s="11" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="18">
+      <c r="A192" s="11" t="s">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="18">
+      <c r="A193" s="11" t="s">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="18">
+      <c r="A194" s="26" t="s">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="18">
+      <c r="A195" s="26"/>
+    </row>
+    <row r="196" spans="1:1" ht="18">
+      <c r="A196" s="11" t="s">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="18">
+      <c r="A197" s="26" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="18">
+      <c r="A198" s="26" t="s">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="18">
+      <c r="A199" s="26" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="18">
+      <c r="A200" s="11" t="s">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="18">
+      <c r="A201" s="26" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" ht="18">
+      <c r="A202" s="26"/>
+    </row>
+    <row r="203" spans="1:1" ht="18">
+      <c r="A203" s="11" t="s">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" ht="18">
+      <c r="A204" s="11" t="s">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" ht="18">
+      <c r="A205" s="26" t="s">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" ht="18">
+      <c r="A206" s="11" t="s">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" ht="18">
+      <c r="A207" s="26"/>
+    </row>
+    <row r="208" spans="1:1" ht="18">
+      <c r="A208" s="11" t="s">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" ht="18">
+      <c r="A209" s="26" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" ht="18">
+      <c r="A210" s="11" t="s">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" ht="18">
+      <c r="A211" s="26" t="s">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" ht="18">
+      <c r="A212" s="26"/>
+    </row>
+    <row r="213" spans="1:1" ht="18">
+      <c r="A213" s="11" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="18">
+      <c r="A214" s="11" t="s">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" ht="18">
+      <c r="A215" s="26" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" ht="18">
+      <c r="A216" s="26" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" ht="18">
+      <c r="A217" s="26"/>
+    </row>
+    <row r="218" spans="1:1" ht="18">
+      <c r="A218" s="11" t="s">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" ht="18">
+      <c r="A219" s="11" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" ht="18">
+      <c r="A220" s="11" t="s">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" ht="18">
+      <c r="A221" s="26" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" ht="18">
+      <c r="A222" s="26"/>
+    </row>
+    <row r="223" spans="1:1" ht="18">
+      <c r="A223" s="11" t="s">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" ht="18">
+      <c r="A224" s="11" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="18">
+      <c r="A225" s="11" t="s">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="18">
+      <c r="A226" s="26"/>
+    </row>
+    <row r="227" spans="1:1" ht="18">
+      <c r="A227" s="26" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" ht="18">
+      <c r="A228" s="11" t="s">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="18">
+      <c r="A229" s="11" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="18">
+      <c r="A230" s="26"/>
+    </row>
+    <row r="231" spans="1:1" ht="18">
+      <c r="A231" s="11" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="18">
+      <c r="A232" s="11" t="s">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="18">
+      <c r="A233" s="26" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="18">
+      <c r="A234" s="11" t="s">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="18">
+      <c r="A235" s="26" t="s">
+        <v>2381</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>